--- a/Project_management/Week_04/Team5_Timesheet_Week4_Runtao Zhuge.xlsx
+++ b/Project_management/Week_04/Team5_Timesheet_Week4_Runtao Zhuge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UA\UA\21S1\MCI_Project\Team-05\Project_management\Week_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF51AEC-A38A-4204-9AAD-7C1D4368D408}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D570E008-2830-4A89-A227-CD8480E3814A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,9 +91,6 @@
     <t>Student ID a1788058</t>
   </si>
   <si>
-    <t>Week starting: Week 3 2021/3/15</t>
-  </si>
-  <si>
     <t>prepareing the meeting with our client.</t>
   </si>
   <si>
@@ -161,6 +158,10 @@
   </si>
   <si>
     <t>It would be necessary for thr next steps for our project/Pitch presentation is essential for our project and business plan</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week starting: Week 4 2021/3/21</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -724,7 +725,7 @@
   <dimension ref="A2:AW12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -763,7 +764,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:49" ht="31.2" x14ac:dyDescent="0.25">
@@ -815,13 +816,13 @@
         <v>6</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="18" t="s">
         <v>32</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>33</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -882,13 +883,13 @@
         <v>4</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -949,13 +950,13 @@
         <v>5</v>
       </c>
       <c r="F8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>28</v>
-      </c>
       <c r="H8" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
@@ -1016,13 +1017,13 @@
         <v>4</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
@@ -1083,13 +1084,13 @@
         <v>6</v>
       </c>
       <c r="F10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>21</v>
-      </c>
       <c r="H10" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -1150,13 +1151,13 @@
         <v>7</v>
       </c>
       <c r="F11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="H11" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
